--- a/limpar_dados.xlsx
+++ b/limpar_dados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Rodrigues\OneDrive - Sonda S.A\Documentos\dev\automacao_transportes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme Rodrigues\OneDrive - Sonda S.A\Documentos\dev\clone transportes\Automacao_transportes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,38 +36,146 @@
     <t/>
   </si>
   <si>
-    <t>Nome da Unidade / Marca: Hospital Paraná (Marimed Serviços Médicos)</t>
-  </si>
-  <si>
-    <t>CNPJ da unidade: 77.265.361/0001-94</t>
-  </si>
-  <si>
-    <t>Endereço da unidade e CEP: 87015-000</t>
-  </si>
-  <si>
-    <t>Numero da unidade: H044</t>
-  </si>
-  <si>
-    <t>Centro de custo por completo: 18001010008</t>
-  </si>
-  <si>
-    <t>Bairro: Zona 05</t>
-  </si>
-  <si>
-    <t>Setor: Ti Infraestrutura</t>
-  </si>
-  <si>
-    <t>Nome colaborador: Alexandro Joanucci da Silva</t>
-  </si>
-  <si>
-    <t>Telefone/Ramal: 4314</t>
+    <r>
+      <t>Nome da Unidade / Marca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Hospital Leforte Liberdade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CNPJ da unidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 21.371.777/0001-32</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Endereço da unidade e CEP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Rua Barão de Iguape, 209 – Liberdade – São Paulo - SP - CEP: 01507-000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Número da unidade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 209</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Centro de custo por completo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 012901220001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bairro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Liberdade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Setor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Centro Cirúrgico</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Nome colaborador</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Veronica Zuqueli Ferrari</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Telefone/Ramal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: 2006</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +188,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -146,6 +262,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +571,7 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A3" sqref="A3:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -480,88 +597,88 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ref="B3:B11" si="0">IFERROR(RIGHT(A3, LEN(A3)-SEARCH(": ", A3)-1), "")</f>
-        <v>Hospital Paraná (Marimed Serviços Médicos)</v>
+        <v>Hospital Leforte Liberdade</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>77.265.361/0001-94</v>
+        <v>21.371.777/0001-32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>87015-000</v>
+        <v>Rua Barão de Iguape, 209 – Liberdade – São Paulo - SP - CEP: 01507-000</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>H044</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>18001010008</v>
+        <v>012901220001</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Zona 05</v>
+        <v>Liberdade</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Ti Infraestrutura</v>
+        <v>Centro Cirúrgico</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Alexandro Joanucci da Silva</v>
+        <v>Veronica Zuqueli Ferrari</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4314</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="3" t="str">
         <f t="shared" ref="B12:B18" si="1">IFERROR(RIGHT(A12, LEN(A12)-SEARCH(": ", A12)-1), "")</f>
         <v/>
@@ -1134,5 +1251,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>